--- a/resource/presentation/JavaOne SFO - 2016/ContentOutline.xlsx
+++ b/resource/presentation/JavaOne SFO - 2016/ContentOutline.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="77">
   <si>
     <t>Intro</t>
   </si>
@@ -139,9 +139,6 @@
     <t xml:space="preserve">Basic Attribute </t>
   </si>
   <si>
-    <t>Field type,  fetch type and optional</t>
-  </si>
-  <si>
     <t>Cascade type, Collection type</t>
   </si>
   <si>
@@ -241,7 +238,19 @@
     <t>Important Link</t>
   </si>
   <si>
-    <t>By</t>
+    <t>Field type and optional</t>
+  </si>
+  <si>
+    <t>Fetch type</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>_</t>
   </si>
 </sst>
 </file>
@@ -638,18 +647,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G197"/>
+  <dimension ref="B1:G198"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" customWidth="1"/>
     <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.140625" customWidth="1"/>
+    <col min="3" max="3" width="49.28515625" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" style="6" customWidth="1"/>
     <col min="5" max="5" width="10" style="6" customWidth="1"/>
   </cols>
@@ -662,14 +671,14 @@
         <v>9</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F1" s="4">
-        <f>SUM(F2:F102)</f>
-        <v>143</v>
+        <f>SUM(F2:F103)</f>
+        <v>142</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>26</v>
@@ -684,13 +693,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" s="6">
         <v>1</v>
@@ -714,7 +723,7 @@
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="10"/>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E6" s="6">
         <v>3</v>
@@ -726,7 +735,7 @@
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="10"/>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E7" s="6">
         <v>4</v>
@@ -750,7 +759,7 @@
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="10"/>
       <c r="C9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -771,7 +780,7 @@
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="11"/>
       <c r="C11" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" s="6">
         <v>7</v>
@@ -785,10 +794,10 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F13">
         <v>7</v>
@@ -799,13 +808,13 @@
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E15" s="6">
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
@@ -829,7 +838,7 @@
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="10"/>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="F18">
         <v>3</v>
@@ -838,7 +847,7 @@
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="10"/>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -856,7 +865,7 @@
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="10"/>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F21">
         <v>2</v>
@@ -865,7 +874,7 @@
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="10"/>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F22">
         <v>3</v>
@@ -883,7 +892,7 @@
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="10"/>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F24">
         <v>2</v>
@@ -894,15 +903,17 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="10"/>
       <c r="C27" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>75</v>
+      </c>
       <c r="E27" s="7"/>
       <c r="F27" s="2">
         <v>2</v>
@@ -911,9 +922,11 @@
     <row r="28" spans="2:6" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="7"/>
+        <v>46</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>75</v>
+      </c>
       <c r="E28" s="7"/>
       <c r="F28" s="2">
         <v>3</v>
@@ -930,13 +943,16 @@
         <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="10"/>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="F31">
         <v>4</v>
@@ -963,7 +979,7 @@
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="10"/>
       <c r="C34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F34">
         <v>3</v>
@@ -981,7 +997,7 @@
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="10"/>
       <c r="C36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F36">
         <v>3</v>
@@ -990,7 +1006,10 @@
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="10"/>
       <c r="C37" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="F37">
         <v>2</v>
@@ -999,7 +1018,10 @@
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="10"/>
       <c r="C38" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -1010,19 +1032,22 @@
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C40" s="13" t="s">
-        <v>69</v>
-      </c>
       <c r="F40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="10"/>
       <c r="C41" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="F41">
         <v>4</v>
@@ -1031,57 +1056,72 @@
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="10"/>
       <c r="C42" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="F42">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="10"/>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>55</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="10"/>
       <c r="C44" t="s">
-        <v>56</v>
+        <v>73</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="F44">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="10"/>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>37</v>
       </c>
-      <c r="F45">
+      <c r="D46" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F46">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="1"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
-      <c r="C47" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -1090,7 +1130,7 @@
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -1099,7 +1139,7 @@
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -1108,7 +1148,7 @@
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -1117,7 +1157,7 @@
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="9" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -1125,134 +1165,149 @@
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
+      <c r="C53" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="1"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E55" s="6">
         <v>12</v>
       </c>
-      <c r="F54" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="10"/>
-      <c r="C55" t="s">
-        <v>33</v>
-      </c>
-      <c r="F55">
-        <v>5</v>
+      <c r="F55" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="10"/>
       <c r="C56" t="s">
+        <v>33</v>
+      </c>
+      <c r="F56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="10"/>
+      <c r="C57" t="s">
         <v>34</v>
       </c>
-      <c r="F56">
+      <c r="F57">
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="1"/>
-    </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="1"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B59" s="10"/>
-      <c r="C59" t="s">
-        <v>21</v>
-      </c>
-      <c r="F59">
-        <v>4</v>
+      <c r="F59" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="10"/>
       <c r="C60" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="F60">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="10"/>
       <c r="C61" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="F61">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="10"/>
       <c r="C62" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" s="10"/>
       <c r="C63" t="s">
-        <v>51</v>
+        <v>24</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="F63">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="1"/>
+      <c r="B64" s="10"/>
+      <c r="C64" t="s">
+        <v>50</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="1"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F65" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B66" s="10"/>
-      <c r="C66" t="s">
-        <v>58</v>
-      </c>
-      <c r="F66">
-        <v>1</v>
+      <c r="F66" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" s="10"/>
       <c r="C67" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F67">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" s="10"/>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="F68">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" s="10"/>
       <c r="C69" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F69">
         <v>4</v>
@@ -1261,50 +1316,48 @@
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="10"/>
       <c r="C70" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F70">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71" s="10"/>
       <c r="C71" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72" s="10"/>
       <c r="C72" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="F72">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B73" s="1"/>
+      <c r="B73" s="10"/>
+      <c r="C73" t="s">
+        <v>59</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
+      </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B74" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E74" s="6">
-        <v>13</v>
-      </c>
-      <c r="F74">
-        <v>2</v>
-      </c>
+      <c r="B74" s="1"/>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E75" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F75">
         <v>2</v>
@@ -1312,17 +1365,25 @@
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E76" s="6">
+        <v>14</v>
+      </c>
+      <c r="F76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E77" s="6">
         <v>15</v>
       </c>
-      <c r="F76" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B77" s="1"/>
+      <c r="F77" s="8" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
@@ -1351,8 +1412,8 @@
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B148" s="1"/>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="1"/>
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B149" s="1"/>
@@ -1500,6 +1561,9 @@
     </row>
     <row r="197" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B197" s="1"/>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B198" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resource/presentation/JavaOne SFO - 2016/ContentOutline.xlsx
+++ b/resource/presentation/JavaOne SFO - 2016/ContentOutline.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="78">
   <si>
     <t>Intro</t>
   </si>
@@ -251,6 +251,9 @@
   </si>
   <si>
     <t>_</t>
+  </si>
+  <si>
+    <t>Fluent API</t>
   </si>
 </sst>
 </file>
@@ -647,11 +650,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G198"/>
+  <dimension ref="B1:G199"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,8 +680,8 @@
         <v>61</v>
       </c>
       <c r="F1" s="4">
-        <f>SUM(F2:F103)</f>
-        <v>142</v>
+        <f>SUM(F2:F104)</f>
+        <v>142.5</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>26</v>
@@ -892,85 +895,85 @@
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="10"/>
       <c r="C24" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
         <v>52</v>
       </c>
-      <c r="F24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
+      <c r="F25">
+        <v>2</v>
+      </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="10"/>
-      <c r="C27" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>75</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="10"/>
+      <c r="C29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
-    </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E31" s="6">
         <v>11</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F31" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="10"/>
-      <c r="C31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F31">
-        <v>4</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="10"/>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>43</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="F32">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="10"/>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F33">
         <v>3</v>
@@ -979,7 +982,7 @@
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="10"/>
       <c r="C34" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="F34">
         <v>3</v>
@@ -988,7 +991,7 @@
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="10"/>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="F35">
         <v>3</v>
@@ -997,7 +1000,7 @@
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="10"/>
       <c r="C36" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="F36">
         <v>3</v>
@@ -1006,131 +1009,131 @@
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="10"/>
       <c r="C37" t="s">
-        <v>41</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="10"/>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>75</v>
       </c>
       <c r="F38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="10"/>
+      <c r="C39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F39">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="1"/>
-    </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C41" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F41" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="10"/>
-      <c r="C41" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F41">
-        <v>4</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="10"/>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>75</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="10"/>
       <c r="C43" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>75</v>
       </c>
       <c r="F43">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="10"/>
       <c r="C44" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>75</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="10"/>
       <c r="C45" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>75</v>
       </c>
       <c r="F45">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="10" t="s">
-        <v>36</v>
-      </c>
+      <c r="B46" s="10"/>
       <c r="C46" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>75</v>
       </c>
       <c r="F46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F47">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="1"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
-      <c r="C48" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -1139,7 +1142,7 @@
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -1148,7 +1151,7 @@
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -1157,7 +1160,7 @@
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -1166,7 +1169,7 @@
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="9" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -1174,149 +1177,149 @@
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
+      <c r="C54" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="1"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E56" s="6">
         <v>12</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F56" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="10"/>
-      <c r="C56" t="s">
-        <v>33</v>
-      </c>
-      <c r="F56">
-        <v>5</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="10"/>
       <c r="C57" t="s">
+        <v>33</v>
+      </c>
+      <c r="F57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="10"/>
+      <c r="C58" t="s">
         <v>34</v>
       </c>
-      <c r="F57">
+      <c r="F58">
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="1"/>
-    </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="1"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F60" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B60" s="10"/>
-      <c r="C60" t="s">
-        <v>21</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F60">
-        <v>4</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="10"/>
       <c r="C61" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F61">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="10"/>
       <c r="C62" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>75</v>
       </c>
       <c r="F62">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" s="10"/>
       <c r="C63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>75</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" s="10"/>
       <c r="C64" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" s="10"/>
+      <c r="C65" t="s">
         <v>50</v>
       </c>
-      <c r="D64" s="6" t="s">
+      <c r="D65" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="F64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B65" s="1"/>
+      <c r="F65">
+        <v>2</v>
+      </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F67" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B67" s="10"/>
-      <c r="C67" t="s">
-        <v>57</v>
-      </c>
-      <c r="F67">
-        <v>1</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" s="10"/>
       <c r="C68" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F68">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" s="10"/>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="F69">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="10"/>
       <c r="C70" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F70">
         <v>4</v>
@@ -1325,50 +1328,48 @@
     <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71" s="10"/>
       <c r="C71" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F71">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72" s="10"/>
       <c r="C72" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B73" s="10"/>
       <c r="C73" t="s">
+        <v>29</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B74" s="10"/>
+      <c r="C74" t="s">
         <v>59</v>
       </c>
-      <c r="F73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B74" s="1"/>
+      <c r="F74">
+        <v>2</v>
+      </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B75" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E75" s="6">
-        <v>13</v>
-      </c>
-      <c r="F75">
-        <v>2</v>
-      </c>
+      <c r="B75" s="1"/>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E76" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F76">
         <v>2</v>
@@ -1376,17 +1377,25 @@
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E77" s="6">
+        <v>14</v>
+      </c>
+      <c r="F77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B78" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E77" s="6">
+      <c r="E78" s="6">
         <v>15</v>
       </c>
-      <c r="F77" s="8" t="s">
+      <c r="F78" s="8" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B78" s="1"/>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
@@ -1415,8 +1424,8 @@
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B149" s="1"/>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" s="1"/>
     </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B150" s="1"/>
@@ -1564,6 +1573,9 @@
     </row>
     <row r="198" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B198" s="1"/>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B199" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resource/presentation/JavaOne SFO - 2016/ContentOutline.xlsx
+++ b/resource/presentation/JavaOne SFO - 2016/ContentOutline.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="87">
   <si>
     <t>Intro</t>
   </si>
@@ -31,18 +31,9 @@
     <t>Quick Demo</t>
   </si>
   <si>
-    <t>Entity, Mapped Supper class, Embedded</t>
-  </si>
-  <si>
     <t>Relation attribute</t>
   </si>
   <si>
-    <t>DB Modeler</t>
-  </si>
-  <si>
-    <t>Table Column</t>
-  </si>
-  <si>
     <t>Join Table - Column</t>
   </si>
   <si>
@@ -136,9 +127,6 @@
     <t>Persistence Unit name</t>
   </si>
   <si>
-    <t xml:space="preserve">Basic Attribute </t>
-  </si>
-  <si>
     <t>Cascade type, Collection type</t>
   </si>
   <si>
@@ -184,9 +172,6 @@
     <t>Join Table-Column Conversion</t>
   </si>
   <si>
-    <t>Inheritance - Dtype</t>
-  </si>
-  <si>
     <t>Stored Procedure</t>
   </si>
   <si>
@@ -217,9 +202,6 @@
     <t>JPA Modeler Vision</t>
   </si>
   <si>
-    <t>TBD</t>
-  </si>
-  <si>
     <t>JPA Modeler</t>
   </si>
   <si>
@@ -254,6 +236,51 @@
   </si>
   <si>
     <t>Fluent API</t>
+  </si>
+  <si>
+    <t>Inheritance - Dtype, AttributeOverride</t>
+  </si>
+  <si>
+    <t>Mapped Supper class ,  AttributeOverride</t>
+  </si>
+  <si>
+    <t>show boolean type difference in DB</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Entity</t>
+  </si>
+  <si>
+    <t>Misc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PrimaryKey, Basic  Attribute </t>
+  </si>
+  <si>
+    <t>Lob, Transient, Enumerated</t>
+  </si>
+  <si>
+    <t>Transient, Version, ElementCollection</t>
+  </si>
+  <si>
+    <t>Bean Validation (custom annotation)</t>
+  </si>
+  <si>
+    <t>Table / Column</t>
+  </si>
+  <si>
+    <t>Lazy Fetching</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Bower &amp; Maven</t>
   </si>
 </sst>
 </file>
@@ -344,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -370,6 +397,29 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -650,11 +700,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G199"/>
+  <dimension ref="B1:I209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F83" sqref="F83"/>
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,800 +712,966 @@
     <col min="1" max="1" width="16.140625" customWidth="1"/>
     <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="10" style="6" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="10" style="6" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="8"/>
+    <col min="9" max="9" width="38.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>74</v>
+        <v>6</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>76</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="4">
-        <f>SUM(F2:F104)</f>
-        <v>142.5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="21">
+        <f>SUM(G2:G114)</f>
+        <v>147.5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G2" s="22"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G3" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
       <c r="C4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="6">
+        <v>51</v>
+      </c>
+      <c r="F4" s="6">
         <v>1</v>
       </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G4" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="10"/>
       <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="6">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="F5" s="6">
+        <v>2</v>
+      </c>
+      <c r="G5" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="10"/>
       <c r="C6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="6">
+        <v>57</v>
+      </c>
+      <c r="F6" s="6">
         <v>3</v>
       </c>
-      <c r="F6">
+      <c r="G6" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="10"/>
       <c r="C7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="6">
+        <v>58</v>
+      </c>
+      <c r="F7" s="6">
         <v>4</v>
       </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G7" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="10"/>
       <c r="C8" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="6">
+      <c r="F8" s="6">
         <v>5</v>
       </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G8" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="10"/>
       <c r="C9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9">
+        <v>47</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="G9" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="6">
+        <v>27</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="F10" s="6">
         <v>6</v>
       </c>
-      <c r="F10">
+      <c r="G10" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="11"/>
       <c r="C11" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="6">
+        <v>63</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="6">
         <v>7</v>
       </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G12" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G14" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="6">
+        <v>60</v>
+      </c>
+      <c r="F15" s="6">
         <v>10</v>
       </c>
-      <c r="F15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G15" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="10"/>
       <c r="C16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="8">
         <v>3</v>
       </c>
-      <c r="F16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="10"/>
       <c r="C17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17">
+        <v>79</v>
+      </c>
+      <c r="G17" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="10"/>
       <c r="C18" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18">
+        <v>83</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="10"/>
       <c r="C19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="G19" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="10"/>
       <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="G20" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="10"/>
       <c r="C21" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="G21" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="10"/>
       <c r="C22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="10"/>
       <c r="C23" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="10"/>
-      <c r="C24" t="s">
-        <v>77</v>
-      </c>
-      <c r="F24">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" s="8">
+        <v>4</v>
+      </c>
+      <c r="I23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="11"/>
+      <c r="C24" s="16"/>
+      <c r="G24" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G25" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="10"/>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="10"/>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
-      <c r="C28" s="2" t="s">
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="10"/>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="11"/>
+      <c r="C30" s="16"/>
+      <c r="G30" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="10"/>
+      <c r="C31" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="10"/>
-      <c r="C29" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="6">
-        <v>11</v>
-      </c>
-      <c r="F31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="10"/>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="10"/>
       <c r="C33" t="s">
-        <v>6</v>
-      </c>
-      <c r="F33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G33" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="10"/>
       <c r="C34" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34">
+        <v>72</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G34" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="10"/>
-      <c r="C35" t="s">
-        <v>53</v>
-      </c>
-      <c r="F35">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="11"/>
+      <c r="C35" s="16"/>
+      <c r="G35" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="10"/>
+      <c r="C37" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" s="7"/>
+      <c r="G37" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="10"/>
+      <c r="C38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F38" s="7"/>
+      <c r="G38" s="23">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="10"/>
-      <c r="C36" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="10"/>
-      <c r="C37" t="s">
-        <v>54</v>
-      </c>
-      <c r="F37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="10"/>
-      <c r="C38" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="10"/>
-      <c r="C39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="1"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F41" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" s="19"/>
+      <c r="G40" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="10"/>
+      <c r="C41" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G41" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="10"/>
       <c r="C42" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="10"/>
-      <c r="C43" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G42" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="11"/>
+      <c r="C43" s="16"/>
+      <c r="G43" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="10"/>
       <c r="C44" t="s">
-        <v>55</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F44">
+        <v>9</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G44" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="10"/>
       <c r="C45" t="s">
-        <v>73</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G45" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="10"/>
       <c r="C46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F46">
+        <v>50</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G46" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="10"/>
+      <c r="C47" t="s">
+        <v>67</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G47" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="10"/>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G48" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C47" t="s">
-        <v>37</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="1"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
-      <c r="C49" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G49" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F50">
+        <v>11</v>
+      </c>
+      <c r="D50" s="20"/>
+      <c r="G50" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F51">
+        <v>12</v>
+      </c>
+      <c r="D51" s="20"/>
+      <c r="G51" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F52">
+        <v>13</v>
+      </c>
+      <c r="D52" s="20"/>
+      <c r="G52" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F53">
+        <v>14</v>
+      </c>
+      <c r="D53" s="20"/>
+      <c r="G53" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F54">
+        <v>15</v>
+      </c>
+      <c r="D54" s="20"/>
+      <c r="G54" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="1" t="s">
+      <c r="C55" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E56" s="6">
-        <v>12</v>
-      </c>
-      <c r="F56" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D55" s="20"/>
+      <c r="G55" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="1"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="20"/>
+      <c r="G56" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="10"/>
       <c r="C57" t="s">
-        <v>33</v>
-      </c>
-      <c r="F57">
+        <v>82</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G57" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="1"/>
+      <c r="G58" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F59" s="6">
+        <v>12</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="10"/>
+      <c r="C60" t="s">
+        <v>30</v>
+      </c>
+      <c r="G60" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="10"/>
-      <c r="C58" t="s">
-        <v>34</v>
-      </c>
-      <c r="F58">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B59" s="1"/>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B60" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F60" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="10"/>
       <c r="C61" t="s">
-        <v>21</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F61">
+        <v>31</v>
+      </c>
+      <c r="G61" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B62" s="10"/>
-      <c r="C62" t="s">
-        <v>22</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B63" s="10"/>
-      <c r="C63" t="s">
-        <v>23</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F63">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="1"/>
+      <c r="G62" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="10"/>
       <c r="C64" t="s">
-        <v>24</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G64" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="10"/>
       <c r="C65" t="s">
-        <v>50</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B66" s="1"/>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B67" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F67" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G65" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="10"/>
+      <c r="C66" t="s">
+        <v>86</v>
+      </c>
+      <c r="G66" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="10"/>
+      <c r="C67" t="s">
+        <v>20</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G67" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="10"/>
       <c r="C68" t="s">
-        <v>57</v>
-      </c>
-      <c r="F68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G68" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="10"/>
       <c r="C69" t="s">
-        <v>58</v>
-      </c>
-      <c r="F69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B70" s="10"/>
+        <v>46</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G69" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="11"/>
       <c r="C70" t="s">
-        <v>27</v>
-      </c>
-      <c r="F70">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B71" s="10"/>
-      <c r="C71" t="s">
-        <v>28</v>
-      </c>
-      <c r="F71">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B72" s="10"/>
-      <c r="C72" t="s">
-        <v>19</v>
-      </c>
-      <c r="F72">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="1"/>
+      <c r="G71" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" s="10"/>
       <c r="C73" t="s">
-        <v>29</v>
-      </c>
-      <c r="F73">
+        <v>52</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G73" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" s="10"/>
       <c r="C74" t="s">
+        <v>53</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G74" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="10"/>
+      <c r="C75" t="s">
+        <v>24</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G75" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B76" s="10"/>
+      <c r="C76" t="s">
+        <v>25</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G76" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B77" s="10"/>
+      <c r="C77" t="s">
+        <v>16</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G77" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B78" s="10"/>
+      <c r="C78" t="s">
+        <v>26</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G78" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B79" s="10"/>
+      <c r="C79" t="s">
+        <v>54</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G79" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B80" s="11"/>
+      <c r="C80" s="16"/>
+    </row>
+    <row r="81" spans="2:7" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C81" s="15"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="10"/>
+      <c r="C82" t="s">
+        <v>71</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G82" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="10"/>
+      <c r="C83" t="s">
+        <v>48</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G83" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B84" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C84" t="s">
+        <v>34</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G84" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B85" s="1"/>
+      <c r="G85" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F74">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B75" s="1"/>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B76" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E76" s="6">
+      <c r="F86" s="6">
         <v>13</v>
       </c>
-      <c r="F76">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B77" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E77" s="6">
+      <c r="G86" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B87" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F87" s="6">
         <v>14</v>
       </c>
-      <c r="F77">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B78" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E78" s="6">
+      <c r="G87" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B88" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F88" s="6">
         <v>15</v>
       </c>
-      <c r="F78" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B79" s="1"/>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B80" s="1"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" s="1"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" s="1"/>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
-    </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B150" s="1"/>
-    </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B151" s="1"/>
-    </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B152" s="1"/>
-    </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B153" s="1"/>
-    </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B154" s="1"/>
-    </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B155" s="1"/>
-    </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B156" s="1"/>
-    </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B157" s="1"/>
-    </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B158" s="1"/>
-    </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B159" s="1"/>
+      <c r="G88" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B89" s="1"/>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B90" s="1"/>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B91" s="1"/>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B92" s="1"/>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B93" s="1"/>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B94" s="1"/>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B95" s="1"/>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B96" s="1"/>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="1"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="1"/>
     </row>
     <row r="160" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B160" s="1"/>
@@ -1576,6 +1792,36 @@
     </row>
     <row r="199" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B199" s="1"/>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B200" s="1"/>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B201" s="1"/>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B202" s="1"/>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B203" s="1"/>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B204" s="1"/>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B205" s="1"/>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B206" s="1"/>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B207" s="1"/>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B208" s="1"/>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B209" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
